--- a/Supplementary Sheet_AE.xlsx
+++ b/Supplementary Sheet_AE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A9DC" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME FIRST" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,12 @@
     <definedName name="Z_8F09E47F_4A31_4378_B75F_D5680D5C667E_.wvu.PrintArea" localSheetId="8" hidden="1">'8'!$A$1:$O$44</definedName>
     <definedName name="Z_8F09E47F_4A31_4378_B75F_D5680D5C667E_.wvu.PrintArea" localSheetId="9" hidden="1">'9'!$A$1:$O$46</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="283">
   <si>
     <t>Mechanics</t>
   </si>
@@ -1190,7 +1190,61 @@
     <t>Pollutant Formation</t>
   </si>
   <si>
-    <t xml:space="preserve">Deshmukh,Mohit Harishchandra </t>
+    <t>Deshmukh,Mohit Harishchandra</t>
+  </si>
+  <si>
+    <t>PHY F111 Mechanics, Oscillations and Waves</t>
+  </si>
+  <si>
+    <t>PHY F110 Physics Laboratory</t>
+  </si>
+  <si>
+    <t>ME F211 Mechanics of Solids</t>
+  </si>
+  <si>
+    <t>ME F215 Mechanical Engineering Laboratory</t>
+  </si>
+  <si>
+    <t>ME F244 Kinematics &amp; Dynamics of Machinery</t>
+  </si>
+  <si>
+    <t>ME F312 Advanced Mechanics of Solids</t>
+  </si>
+  <si>
+    <t>ME F343 Mechanical Vibrations</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>BITS F110 Engineering Graphics</t>
+  </si>
+  <si>
+    <t>ME F241 Machine Design &amp; Drawing</t>
+  </si>
+  <si>
+    <t>ME F342 Computer Aided Design</t>
+  </si>
+  <si>
+    <t>BITS F111 Thermodynamics</t>
+  </si>
+  <si>
+    <t>ME F214 Applied Thermodynamics</t>
+  </si>
+  <si>
+    <t>ME F311 Heat Transfer</t>
+  </si>
+  <si>
+    <t>ME F485 Numerical Techniques for Fluid Flow and Heat Transfer</t>
+  </si>
+  <si>
+    <t>ME F213 Materials Science &amp; Engineering</t>
+  </si>
+  <si>
+    <t>ME F452 Composite Materials &amp; Design</t>
+  </si>
+  <si>
+    <t>ME F432 Computer Aided manufacturing</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3964,6 +4018,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4011,7 +4068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4046,7 +4103,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4258,11 +4315,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
@@ -4270,13 +4327,13 @@
     <col min="4" max="4" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="115" t="s">
         <v>70</v>
@@ -4284,7 +4341,7 @@
       <c r="C2" s="116"/>
       <c r="D2" s="70"/>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="70"/>
       <c r="B3" s="121" t="s">
         <v>95</v>
@@ -4292,13 +4349,13 @@
       <c r="C3" s="122"/>
       <c r="D3" s="70"/>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" thickBot="1">
       <c r="A4" s="70"/>
       <c r="B4" s="123"/>
       <c r="C4" s="124"/>
       <c r="D4" s="70"/>
     </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="26.25" customHeight="1">
       <c r="A5" s="70"/>
       <c r="B5" s="107" t="s">
         <v>93</v>
@@ -4308,7 +4365,7 @@
       </c>
       <c r="D5" s="70"/>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="111" t="s">
         <v>94</v>
@@ -4316,7 +4373,7 @@
       <c r="C6" s="112"/>
       <c r="D6" s="70"/>
     </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A7" s="70"/>
       <c r="B7" s="117" t="s">
         <v>71</v>
@@ -4324,7 +4381,7 @@
       <c r="C7" s="118"/>
       <c r="D7" s="70"/>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="119" t="s">
         <v>72</v>
@@ -4332,7 +4389,7 @@
       <c r="C8" s="120"/>
       <c r="D8" s="71"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="70"/>
       <c r="B9" s="113" t="s">
         <v>73</v>
@@ -4340,7 +4397,7 @@
       <c r="C9" s="114"/>
       <c r="D9" s="70"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="70"/>
       <c r="B10" s="113" t="s">
         <v>74</v>
@@ -4348,7 +4405,7 @@
       <c r="C10" s="114"/>
       <c r="D10" s="70"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="70"/>
       <c r="B11" s="113" t="s">
         <v>75</v>
@@ -4356,7 +4413,7 @@
       <c r="C11" s="114"/>
       <c r="D11" s="70"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="70"/>
       <c r="B12" s="113" t="s">
         <v>76</v>
@@ -4364,7 +4421,7 @@
       <c r="C12" s="114"/>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="70"/>
       <c r="B13" s="113" t="s">
         <v>77</v>
@@ -4372,7 +4429,7 @@
       <c r="C13" s="114"/>
       <c r="D13" s="70"/>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="70"/>
       <c r="B14" s="113" t="s">
         <v>78</v>
@@ -4380,7 +4437,7 @@
       <c r="C14" s="114"/>
       <c r="D14" s="70"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="70"/>
       <c r="B15" s="113" t="s">
         <v>79</v>
@@ -4388,7 +4445,7 @@
       <c r="C15" s="114"/>
       <c r="D15" s="70"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="70"/>
       <c r="B16" s="113" t="s">
         <v>80</v>
@@ -4396,7 +4453,7 @@
       <c r="C16" s="114"/>
       <c r="D16" s="70"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="70"/>
       <c r="B17" s="113" t="s">
         <v>81</v>
@@ -4404,7 +4461,7 @@
       <c r="C17" s="114"/>
       <c r="D17" s="70"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="70"/>
       <c r="B18" s="113" t="s">
         <v>82</v>
@@ -4412,7 +4469,7 @@
       <c r="C18" s="114"/>
       <c r="D18" s="70"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="70"/>
       <c r="B19" s="113" t="s">
         <v>83</v>
@@ -4420,7 +4477,7 @@
       <c r="C19" s="114"/>
       <c r="D19" s="70"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="70"/>
       <c r="B20" s="113" t="s">
         <v>84</v>
@@ -4428,7 +4485,7 @@
       <c r="C20" s="114"/>
       <c r="D20" s="70"/>
     </row>
-    <row r="21" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="83.25" customHeight="1">
       <c r="A21" s="70"/>
       <c r="B21" s="119" t="s">
         <v>85</v>
@@ -4436,7 +4493,7 @@
       <c r="C21" s="120"/>
       <c r="D21" s="70"/>
     </row>
-    <row r="22" spans="1:4" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="83.25" customHeight="1" thickBot="1">
       <c r="A22" s="70"/>
       <c r="B22" s="119" t="s">
         <v>86</v>
@@ -4444,7 +4501,7 @@
       <c r="C22" s="120"/>
       <c r="D22" s="70"/>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="70"/>
       <c r="B23" s="117" t="s">
         <v>87</v>
@@ -4452,7 +4509,7 @@
       <c r="C23" s="118"/>
       <c r="D23" s="70"/>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1">
       <c r="A24" s="70"/>
       <c r="B24" s="119" t="s">
         <v>92</v>
@@ -4460,7 +4517,7 @@
       <c r="C24" s="120"/>
       <c r="D24" s="70"/>
     </row>
-    <row r="25" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="52.5" customHeight="1">
       <c r="A25" s="70"/>
       <c r="B25" s="119" t="s">
         <v>91</v>
@@ -4468,7 +4525,7 @@
       <c r="C25" s="120"/>
       <c r="D25" s="70"/>
     </row>
-    <row r="26" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="37.5" customHeight="1">
       <c r="A26" s="70"/>
       <c r="B26" s="119" t="s">
         <v>88</v>
@@ -4476,7 +4533,7 @@
       <c r="C26" s="120"/>
       <c r="D26" s="70"/>
     </row>
-    <row r="27" spans="1:4" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
       <c r="A27" s="70"/>
       <c r="B27" s="119" t="s">
         <v>89</v>
@@ -4484,7 +4541,7 @@
       <c r="C27" s="120"/>
       <c r="D27" s="70"/>
     </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="72"/>
       <c r="B28" s="117" t="s">
         <v>90</v>
@@ -4492,7 +4549,7 @@
       <c r="C28" s="118"/>
       <c r="D28" s="72"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="70"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
@@ -4554,7 +4611,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -4565,7 +4622,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4582,7 +4639,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>174</v>
@@ -4605,7 +4662,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -4630,11 +4687,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -4658,7 +4715,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -4677,7 +4734,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G38,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -4714,7 +4771,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -4743,7 +4800,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -4772,7 +4829,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -4801,7 +4858,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -4830,7 +4887,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -4859,7 +4916,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -4888,7 +4945,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -4912,7 +4969,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -4936,7 +4993,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -4960,7 +5017,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -4984,7 +5041,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -5008,7 +5065,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -5032,7 +5089,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -5056,7 +5113,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -5080,7 +5137,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -5104,7 +5161,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
@@ -5128,7 +5185,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="97"/>
       <c r="C23" s="98"/>
@@ -5152,7 +5209,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
@@ -5176,7 +5233,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="97"/>
       <c r="C25" s="98"/>
@@ -5200,7 +5257,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
@@ -5224,7 +5281,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
       <c r="C27" s="98"/>
@@ -5248,7 +5305,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
       <c r="C28" s="98"/>
@@ -5272,7 +5329,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="97"/>
       <c r="C29" s="98"/>
@@ -5296,7 +5353,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="97"/>
       <c r="C30" s="98"/>
@@ -5320,7 +5377,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="97"/>
       <c r="C31" s="98"/>
@@ -5344,7 +5401,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
@@ -5368,7 +5425,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
@@ -5392,7 +5449,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
@@ -5416,7 +5473,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="97"/>
       <c r="C35" s="98"/>
@@ -5440,7 +5497,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
@@ -5464,7 +5521,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="71"/>
       <c r="B37" s="97"/>
       <c r="C37" s="98"/>
@@ -5488,7 +5545,7 @@
       <c r="S37" s="106"/>
       <c r="T37" s="106"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="71"/>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
@@ -5512,7 +5569,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="71"/>
       <c r="B39" s="131" t="s">
         <v>38</v>
@@ -5536,7 +5593,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
@@ -5560,7 +5617,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -5584,7 +5641,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
@@ -5608,7 +5665,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
@@ -5632,7 +5689,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="52"/>
       <c r="C44" s="57" t="s">
@@ -5656,7 +5713,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="71"/>
       <c r="B45" s="61" t="s">
         <v>5</v>
@@ -5680,7 +5737,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1">
       <c r="A46" s="70"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -5697,7 +5754,7 @@
       <c r="N46" s="70"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="48" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -5832,7 +5889,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -5843,7 +5900,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -5860,7 +5917,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>199</v>
@@ -5883,7 +5940,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -5908,11 +5965,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -5936,7 +5993,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -5955,7 +6012,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G38,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -5992,7 +6049,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -6021,7 +6078,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -6050,7 +6107,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -6079,7 +6136,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -6108,7 +6165,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -6137,7 +6194,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -6166,7 +6223,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -6190,7 +6247,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -6214,7 +6271,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -6238,7 +6295,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -6262,7 +6319,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -6286,7 +6343,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -6310,7 +6367,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -6334,7 +6391,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -6358,7 +6415,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -6382,7 +6439,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
@@ -6406,7 +6463,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="97"/>
       <c r="C23" s="98"/>
@@ -6430,7 +6487,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
@@ -6454,7 +6511,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="71"/>
       <c r="B25" s="101"/>
       <c r="C25" s="102"/>
@@ -6478,7 +6535,7 @@
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A26" s="71"/>
       <c r="B26" s="64"/>
       <c r="C26" s="65"/>
@@ -6502,7 +6559,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="93"/>
       <c r="C27" s="94"/>
@@ -6526,7 +6583,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
       <c r="C28" s="98"/>
@@ -6550,7 +6607,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="97"/>
       <c r="C29" s="98"/>
@@ -6574,7 +6631,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="97"/>
       <c r="C30" s="98"/>
@@ -6598,7 +6655,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="97"/>
       <c r="C31" s="98"/>
@@ -6622,7 +6679,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
@@ -6646,7 +6703,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
@@ -6670,7 +6727,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
@@ -6694,7 +6751,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="97"/>
       <c r="C35" s="98"/>
@@ -6718,7 +6775,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
@@ -6742,7 +6799,7 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="71"/>
       <c r="B37" s="97"/>
       <c r="C37" s="98"/>
@@ -6766,7 +6823,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="71"/>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
@@ -6790,7 +6847,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="71"/>
       <c r="B39" s="131" t="s">
         <v>38</v>
@@ -6814,7 +6871,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
@@ -6838,7 +6895,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -6862,7 +6919,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
@@ -6886,7 +6943,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
@@ -6910,7 +6967,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="52"/>
       <c r="C44" s="57" t="s">
@@ -6934,7 +6991,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="71"/>
       <c r="B45" s="61" t="s">
         <v>5</v>
@@ -6958,7 +7015,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="7.5" customHeight="1">
       <c r="A46" s="70"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -6975,7 +7032,7 @@
       <c r="N46" s="70"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="48" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -7094,7 +7151,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -7105,7 +7162,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7122,7 +7179,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>248</v>
@@ -7145,7 +7202,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -7170,11 +7227,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -7198,7 +7255,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -7217,7 +7274,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G37,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -7254,7 +7311,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -7283,7 +7340,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -7312,7 +7369,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -7341,7 +7398,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -7370,7 +7427,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -7399,7 +7456,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -7428,7 +7485,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -7452,7 +7509,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -7476,7 +7533,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -7500,7 +7557,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -7524,7 +7581,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -7548,7 +7605,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -7572,7 +7629,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -7596,7 +7653,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -7620,7 +7677,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -7644,7 +7701,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
@@ -7668,7 +7725,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="97"/>
       <c r="C23" s="98"/>
@@ -7692,7 +7749,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
@@ -7716,7 +7773,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="97"/>
       <c r="C25" s="98"/>
@@ -7740,7 +7797,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
@@ -7764,7 +7821,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
       <c r="C27" s="98"/>
@@ -7788,7 +7845,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
       <c r="C28" s="98"/>
@@ -7812,7 +7869,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="97"/>
       <c r="C29" s="98"/>
@@ -7836,7 +7893,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="97"/>
       <c r="C30" s="98"/>
@@ -7860,7 +7917,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="97"/>
       <c r="C31" s="98"/>
@@ -7884,7 +7941,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
@@ -7908,7 +7965,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
@@ -7932,7 +7989,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
@@ -7956,7 +8013,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="97"/>
       <c r="C35" s="98"/>
@@ -7980,7 +8037,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
@@ -8004,7 +8061,7 @@
       <c r="S36" s="106"/>
       <c r="T36" s="106"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A37" s="71"/>
       <c r="B37" s="101"/>
       <c r="C37" s="102"/>
@@ -8028,7 +8085,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="71"/>
       <c r="B38" s="131" t="s">
         <v>38</v>
@@ -8052,7 +8109,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49"/>
@@ -8076,7 +8133,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="52"/>
       <c r="C40" s="53"/>
@@ -8100,7 +8157,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -8124,7 +8181,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
@@ -8148,7 +8205,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="52"/>
       <c r="C43" s="57" t="s">
@@ -8172,7 +8229,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A44" s="71"/>
       <c r="B44" s="61" t="s">
         <v>5</v>
@@ -8196,7 +8253,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1">
       <c r="A45" s="70"/>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -8213,7 +8270,7 @@
       <c r="N45" s="70"/>
       <c r="O45" s="72"/>
     </row>
-    <row r="47" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -8348,7 +8405,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -8359,7 +8416,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -8376,7 +8433,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>249</v>
@@ -8399,7 +8456,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -8424,11 +8481,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -8452,7 +8509,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -8471,7 +8528,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G28,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -8508,7 +8565,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -8537,7 +8594,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -8566,7 +8623,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -8595,7 +8652,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -8624,7 +8681,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -8653,7 +8710,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -8682,7 +8739,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -8706,7 +8763,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -8730,7 +8787,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -8754,7 +8811,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -8778,7 +8835,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8802,7 +8859,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8826,7 +8883,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -8850,7 +8907,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -8874,7 +8931,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -8898,7 +8955,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
@@ -8922,7 +8979,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="97"/>
       <c r="C23" s="98"/>
@@ -8946,7 +9003,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
@@ -8970,7 +9027,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="97"/>
       <c r="C25" s="98"/>
@@ -8994,7 +9051,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
@@ -9018,7 +9075,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
       <c r="C27" s="98"/>
@@ -9042,7 +9099,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A28" s="71"/>
       <c r="B28" s="101"/>
       <c r="C28" s="102"/>
@@ -9066,7 +9123,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="71"/>
       <c r="B29" s="131" t="s">
         <v>38</v>
@@ -9090,7 +9147,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
@@ -9114,7 +9171,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="52"/>
       <c r="C31" s="53"/>
@@ -9138,7 +9195,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="52"/>
       <c r="C32" s="53"/>
@@ -9162,7 +9219,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="52"/>
       <c r="C33" s="53"/>
@@ -9186,7 +9243,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="52"/>
       <c r="C34" s="57" t="s">
@@ -9210,7 +9267,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A35" s="71"/>
       <c r="B35" s="61" t="s">
         <v>5</v>
@@ -9234,7 +9291,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="15" customFormat="1" ht="7.5" customHeight="1">
       <c r="A36" s="70"/>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -9251,7 +9308,7 @@
       <c r="N36" s="70"/>
       <c r="O36" s="72"/>
     </row>
-    <row r="38" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -9383,11 +9440,11 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -9398,7 +9455,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -9415,7 +9472,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>0</v>
@@ -9438,7 +9495,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -9463,11 +9520,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -9491,7 +9548,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -9510,7 +9567,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G38,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -9547,7 +9604,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -9557,7 +9614,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>265</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -9576,7 +9635,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -9586,7 +9645,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="127" t="s">
+        <v>266</v>
+      </c>
       <c r="I8" s="128"/>
       <c r="J8" s="84"/>
       <c r="K8" s="85"/>
@@ -9605,7 +9666,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -9615,7 +9676,9 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="125"/>
+      <c r="H9" s="125" t="s">
+        <v>267</v>
+      </c>
       <c r="I9" s="126"/>
       <c r="J9" s="87"/>
       <c r="K9" s="88"/>
@@ -9634,7 +9697,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -9644,7 +9707,9 @@
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="127"/>
+      <c r="H10" s="127" t="s">
+        <v>268</v>
+      </c>
       <c r="I10" s="128"/>
       <c r="J10" s="84"/>
       <c r="K10" s="85"/>
@@ -9663,7 +9728,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -9673,7 +9738,9 @@
         <v>10</v>
       </c>
       <c r="G11" s="40"/>
-      <c r="H11" s="125"/>
+      <c r="H11" s="125" t="s">
+        <v>271</v>
+      </c>
       <c r="I11" s="126"/>
       <c r="J11" s="87"/>
       <c r="K11" s="88"/>
@@ -9692,7 +9759,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -9702,7 +9769,9 @@
       <c r="G12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="129"/>
+      <c r="H12" s="129" t="s">
+        <v>270</v>
+      </c>
       <c r="I12" s="130"/>
       <c r="J12" s="90"/>
       <c r="K12" s="91"/>
@@ -9721,7 +9790,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -9745,7 +9814,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -9769,14 +9838,24 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>272</v>
+      </c>
       <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>272</v>
+      </c>
       <c r="H15" s="19" t="s">
         <v>14</v>
       </c>
@@ -9793,11 +9872,15 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
+      <c r="D16" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E16" s="98"/>
       <c r="F16" s="99"/>
       <c r="G16" s="100"/>
@@ -9817,11 +9900,17 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E17" s="98"/>
       <c r="F17" s="99"/>
       <c r="G17" s="100"/>
@@ -9841,14 +9930,22 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
+      <c r="B18" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E18" s="98"/>
       <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="G18" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H18" s="22" t="s">
         <v>17</v>
       </c>
@@ -9865,14 +9962,20 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="98"/>
+      <c r="D19" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
+      <c r="G19" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H19" s="22" t="s">
         <v>18</v>
       </c>
@@ -9889,14 +9992,18 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
-      <c r="D20" s="99"/>
+      <c r="D20" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E20" s="98"/>
       <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
+      <c r="G20" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H20" s="22" t="s">
         <v>19</v>
       </c>
@@ -9913,14 +10020,26 @@
       <c r="S20" s="105"/>
       <c r="T20" s="105"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
+      <c r="B21" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>272</v>
+      </c>
       <c r="H21" s="25" t="s">
         <v>20</v>
       </c>
@@ -9937,7 +10056,7 @@
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="71"/>
       <c r="B22" s="64"/>
       <c r="C22" s="65"/>
@@ -9961,14 +10080,18 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
+      <c r="D23" s="95" t="s">
+        <v>272</v>
+      </c>
       <c r="E23" s="94"/>
       <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
+      <c r="G23" s="96" t="s">
+        <v>272</v>
+      </c>
       <c r="H23" s="19" t="s">
         <v>22</v>
       </c>
@@ -9985,14 +10108,22 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="D24" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H24" s="22" t="s">
         <v>23</v>
       </c>
@@ -10009,14 +10140,20 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="97"/>
       <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="98"/>
+      <c r="D25" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
+      <c r="G25" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H25" s="22" t="s">
         <v>24</v>
       </c>
@@ -10033,14 +10170,18 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
+      <c r="D26" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E26" s="98"/>
       <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
+      <c r="G26" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H26" s="22" t="s">
         <v>25</v>
       </c>
@@ -10057,14 +10198,20 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
       <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
+      <c r="D27" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
+      <c r="F27" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H27" s="22" t="s">
         <v>26</v>
       </c>
@@ -10081,14 +10228,20 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
       <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="98"/>
+      <c r="D28" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
+      <c r="G28" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H28" s="22" t="s">
         <v>27</v>
       </c>
@@ -10105,14 +10258,20 @@
       <c r="S28" s="105"/>
       <c r="T28" s="105"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="71"/>
       <c r="B29" s="101"/>
       <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102"/>
+      <c r="D29" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>272</v>
+      </c>
       <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
+      <c r="G29" s="104" t="s">
+        <v>272</v>
+      </c>
       <c r="H29" s="25" t="s">
         <v>28</v>
       </c>
@@ -10129,7 +10288,7 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A30" s="71"/>
       <c r="B30" s="64"/>
       <c r="C30" s="65"/>
@@ -10153,14 +10312,22 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
+      <c r="B31" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>272</v>
+      </c>
       <c r="E31" s="94"/>
       <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
+      <c r="G31" s="96" t="s">
+        <v>272</v>
+      </c>
       <c r="H31" s="19" t="s">
         <v>30</v>
       </c>
@@ -10177,13 +10344,17 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
-      <c r="B32" s="97"/>
+      <c r="B32" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C32" s="98"/>
       <c r="D32" s="99"/>
       <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
+      <c r="F32" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="G32" s="100"/>
       <c r="H32" s="22" t="s">
         <v>31</v>
@@ -10201,10 +10372,14 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
+      <c r="B33" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" s="99"/>
       <c r="E33" s="98"/>
       <c r="F33" s="99"/>
@@ -10225,14 +10400,18 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
+      <c r="D34" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E34" s="98"/>
       <c r="F34" s="99"/>
-      <c r="G34" s="100"/>
+      <c r="G34" s="100" t="s">
+        <v>272</v>
+      </c>
       <c r="H34" s="22" t="s">
         <v>33</v>
       </c>
@@ -10249,13 +10428,19 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
+      <c r="B35" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D35" s="99"/>
       <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
+      <c r="F35" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="G35" s="100"/>
       <c r="H35" s="22" t="s">
         <v>34</v>
@@ -10273,13 +10458,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="97"/>
       <c r="C36" s="98"/>
       <c r="D36" s="99"/>
       <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
+      <c r="F36" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="G36" s="100"/>
       <c r="H36" s="22" t="s">
         <v>35</v>
@@ -10297,13 +10484,19 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="71"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D37" s="99"/>
       <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
+      <c r="F37" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="G37" s="100"/>
       <c r="H37" s="22" t="s">
         <v>36</v>
@@ -10321,13 +10514,15 @@
       <c r="S37" s="105"/>
       <c r="T37" s="105"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="71"/>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
       <c r="D38" s="103"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="103"/>
+      <c r="F38" s="103" t="s">
+        <v>272</v>
+      </c>
       <c r="G38" s="104"/>
       <c r="H38" s="25" t="s">
         <v>37</v>
@@ -10345,7 +10540,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="71"/>
       <c r="B39" s="131" t="s">
         <v>38</v>
@@ -10369,7 +10564,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
@@ -10393,7 +10588,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -10417,7 +10612,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
@@ -10441,7 +10636,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
@@ -10465,7 +10660,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="52"/>
       <c r="C44" s="57" t="s">
@@ -10489,7 +10684,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="71"/>
       <c r="B45" s="61" t="s">
         <v>5</v>
@@ -10513,7 +10708,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="7.5" customHeight="1">
       <c r="A46" s="70"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -10530,7 +10725,7 @@
       <c r="N46" s="70"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="48" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -10645,11 +10840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -10660,7 +10855,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -10677,7 +10872,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>39</v>
@@ -10700,7 +10895,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -10725,11 +10920,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -10753,7 +10948,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -10772,7 +10967,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G38,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -10809,7 +11004,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -10819,7 +11014,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>273</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -10838,7 +11035,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -10848,7 +11045,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="127" t="s">
+        <v>274</v>
+      </c>
       <c r="I8" s="128"/>
       <c r="J8" s="84"/>
       <c r="K8" s="85"/>
@@ -10867,7 +11066,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -10877,7 +11076,9 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="125"/>
+      <c r="H9" s="125" t="s">
+        <v>269</v>
+      </c>
       <c r="I9" s="126"/>
       <c r="J9" s="87"/>
       <c r="K9" s="88"/>
@@ -10896,7 +11097,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -10906,7 +11107,9 @@
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="127"/>
+      <c r="H10" s="127" t="s">
+        <v>275</v>
+      </c>
       <c r="I10" s="128"/>
       <c r="J10" s="84"/>
       <c r="K10" s="85"/>
@@ -10925,7 +11128,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -10954,7 +11157,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -10983,7 +11186,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -11007,7 +11210,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -11031,12 +11234,20 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="94"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="F15" s="95"/>
       <c r="G15" s="96"/>
       <c r="H15" s="19" t="s">
@@ -11055,7 +11266,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -11079,12 +11290,18 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="97"/>
+      <c r="B17" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="98"/>
+      <c r="D17" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F17" s="99"/>
       <c r="G17" s="100"/>
       <c r="H17" s="22" t="s">
@@ -11103,12 +11320,16 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="97"/>
+      <c r="B18" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C18" s="98"/>
       <c r="D18" s="99"/>
-      <c r="E18" s="98"/>
+      <c r="E18" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F18" s="99"/>
       <c r="G18" s="100"/>
       <c r="H18" s="22" t="s">
@@ -11127,12 +11348,16 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="97"/>
+      <c r="B19" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
-      <c r="E19" s="98"/>
+      <c r="E19" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="F19" s="99"/>
       <c r="G19" s="100"/>
       <c r="H19" s="22" t="s">
@@ -11151,10 +11376,12 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
+      <c r="C20" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D20" s="99"/>
       <c r="E20" s="98"/>
       <c r="F20" s="99"/>
@@ -11175,10 +11402,12 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="C21" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D21" s="99"/>
       <c r="E21" s="98"/>
       <c r="F21" s="99"/>
@@ -11199,10 +11428,12 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="71"/>
       <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="C22" s="102" t="s">
+        <v>272</v>
+      </c>
       <c r="D22" s="103"/>
       <c r="E22" s="102"/>
       <c r="F22" s="103"/>
@@ -11223,7 +11454,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="71"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
@@ -11247,10 +11478,12 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
+      <c r="C24" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="D24" s="95"/>
       <c r="E24" s="94"/>
       <c r="F24" s="95"/>
@@ -11271,10 +11504,12 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
+      <c r="C25" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D25" s="99"/>
       <c r="E25" s="98"/>
       <c r="F25" s="99"/>
@@ -11295,10 +11530,12 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="C26" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" s="99"/>
       <c r="E26" s="98"/>
       <c r="F26" s="99"/>
@@ -11319,10 +11556,12 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
+      <c r="C27" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" s="99"/>
       <c r="E27" s="98"/>
       <c r="F27" s="99"/>
@@ -11343,10 +11582,12 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
+      <c r="C28" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" s="99"/>
       <c r="E28" s="98"/>
       <c r="F28" s="99"/>
@@ -11367,10 +11608,12 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" s="99"/>
       <c r="E29" s="98"/>
       <c r="F29" s="99"/>
@@ -11391,10 +11634,12 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
+      <c r="C30" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D30" s="99"/>
       <c r="E30" s="98"/>
       <c r="F30" s="99"/>
@@ -11415,10 +11660,12 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A31" s="71"/>
       <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="C31" s="102" t="s">
+        <v>272</v>
+      </c>
       <c r="D31" s="103"/>
       <c r="E31" s="102"/>
       <c r="F31" s="103"/>
@@ -11439,7 +11686,7 @@
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A32" s="71"/>
       <c r="B32" s="64"/>
       <c r="C32" s="65"/>
@@ -11463,10 +11710,12 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="93"/>
-      <c r="C33" s="94"/>
+      <c r="C33" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" s="95"/>
       <c r="E33" s="94"/>
       <c r="F33" s="95"/>
@@ -11487,10 +11736,12 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="98"/>
+      <c r="C34" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D34" s="99"/>
       <c r="E34" s="98"/>
       <c r="F34" s="99"/>
@@ -11511,11 +11762,15 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
+      <c r="C35" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E35" s="98"/>
       <c r="F35" s="99"/>
       <c r="G35" s="100"/>
@@ -11535,11 +11790,15 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="71"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="99"/>
+      <c r="C36" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E36" s="98"/>
       <c r="F36" s="99"/>
       <c r="G36" s="100"/>
@@ -11559,11 +11818,15 @@
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="71"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
+      <c r="C37" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E37" s="98"/>
       <c r="F37" s="99"/>
       <c r="G37" s="100"/>
@@ -11583,11 +11846,15 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A38" s="71"/>
       <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="103"/>
+      <c r="C38" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>272</v>
+      </c>
       <c r="E38" s="102"/>
       <c r="F38" s="103"/>
       <c r="G38" s="104"/>
@@ -11607,7 +11874,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="71"/>
       <c r="B39" s="131" t="s">
         <v>38</v>
@@ -11631,7 +11898,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="48"/>
       <c r="C40" s="49"/>
@@ -11655,7 +11922,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -11679,7 +11946,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="53"/>
@@ -11703,7 +11970,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="71"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
@@ -11727,7 +11994,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="52"/>
       <c r="C44" s="57" t="s">
@@ -11751,7 +12018,7 @@
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="71"/>
       <c r="B45" s="61" t="s">
         <v>5</v>
@@ -11775,7 +12042,7 @@
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="7.5" customHeight="1">
       <c r="A46" s="70"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -11792,7 +12059,7 @@
       <c r="N46" s="70"/>
       <c r="O46" s="72"/>
     </row>
-    <row r="48" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -11907,11 +12174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -11922,7 +12189,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -11939,7 +12206,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>64</v>
@@ -11962,7 +12229,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -11987,11 +12254,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -12015,7 +12282,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -12034,7 +12301,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G22,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -12071,7 +12338,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -12081,7 +12348,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>276</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -12100,7 +12369,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -12110,7 +12379,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="127" t="s">
+        <v>277</v>
+      </c>
       <c r="I8" s="128"/>
       <c r="J8" s="84"/>
       <c r="K8" s="85"/>
@@ -12129,7 +12400,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -12158,7 +12429,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -12187,7 +12458,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -12216,7 +12487,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -12245,7 +12516,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -12269,7 +12540,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -12293,10 +12564,14 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="D15" s="95"/>
       <c r="E15" s="94"/>
       <c r="F15" s="95"/>
@@ -12317,9 +12592,11 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
       <c r="E16" s="98"/>
@@ -12341,10 +12618,14 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
+      <c r="B17" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D17" s="99"/>
       <c r="E17" s="98"/>
       <c r="F17" s="99"/>
@@ -12365,10 +12646,14 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D18" s="99"/>
       <c r="E18" s="98"/>
       <c r="F18" s="99"/>
@@ -12389,10 +12674,14 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D19" s="99"/>
       <c r="E19" s="98"/>
       <c r="F19" s="99"/>
@@ -12413,10 +12702,14 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D20" s="99"/>
       <c r="E20" s="98"/>
       <c r="F20" s="99"/>
@@ -12437,10 +12730,14 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D21" s="99"/>
       <c r="E21" s="98"/>
       <c r="F21" s="99"/>
@@ -12461,10 +12758,14 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="71"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="102" t="s">
+        <v>272</v>
+      </c>
       <c r="D22" s="103"/>
       <c r="E22" s="102"/>
       <c r="F22" s="103"/>
@@ -12485,7 +12786,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="71"/>
       <c r="B23" s="131" t="s">
         <v>38</v>
@@ -12509,7 +12810,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
@@ -12533,7 +12834,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="52"/>
       <c r="C25" s="53"/>
@@ -12557,7 +12858,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="52"/>
       <c r="C26" s="53"/>
@@ -12581,7 +12882,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="52"/>
       <c r="C27" s="53"/>
@@ -12605,7 +12906,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="52"/>
       <c r="C28" s="57" t="s">
@@ -12629,7 +12930,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="71"/>
       <c r="B29" s="61" t="s">
         <v>5</v>
@@ -12653,7 +12954,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="7.5" customHeight="1">
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -12670,7 +12971,7 @@
       <c r="N30" s="70"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="32" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -12786,10 +13087,10 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -12800,7 +13101,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -12817,7 +13118,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>105</v>
@@ -12840,7 +13141,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -12865,11 +13166,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -12893,7 +13194,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -12912,7 +13213,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G25,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -12949,7 +13250,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -12959,7 +13260,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>278</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -12978,7 +13281,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -12988,7 +13291,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="127" t="s">
+        <v>279</v>
+      </c>
       <c r="I8" s="128"/>
       <c r="J8" s="84"/>
       <c r="K8" s="85"/>
@@ -13007,7 +13312,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -13036,7 +13341,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -13065,7 +13370,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -13094,7 +13399,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -13123,7 +13428,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -13147,7 +13452,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -13171,10 +13476,14 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="D15" s="95"/>
       <c r="E15" s="94"/>
       <c r="F15" s="95"/>
@@ -13195,10 +13504,14 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D16" s="99"/>
       <c r="E16" s="98"/>
       <c r="F16" s="99"/>
@@ -13219,10 +13532,14 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
+      <c r="B17" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D17" s="99"/>
       <c r="E17" s="98"/>
       <c r="F17" s="99"/>
@@ -13243,10 +13560,14 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D18" s="99"/>
       <c r="E18" s="98"/>
       <c r="F18" s="99"/>
@@ -13267,10 +13588,14 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
+      <c r="B19" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D19" s="99"/>
       <c r="E19" s="98"/>
       <c r="F19" s="99"/>
@@ -13291,10 +13616,14 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
+      <c r="B20" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D20" s="99"/>
       <c r="E20" s="98"/>
       <c r="F20" s="99"/>
@@ -13315,10 +13644,14 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
+      <c r="B21" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D21" s="99"/>
       <c r="E21" s="98"/>
       <c r="F21" s="99"/>
@@ -13339,10 +13672,14 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
+      <c r="B22" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D22" s="99"/>
       <c r="E22" s="98"/>
       <c r="F22" s="99"/>
@@ -13363,10 +13700,14 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D23" s="99"/>
       <c r="E23" s="98"/>
       <c r="F23" s="99"/>
@@ -13387,9 +13728,11 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="98"/>
@@ -13411,9 +13754,11 @@
       <c r="S24" s="106"/>
       <c r="T24" s="106"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="101"/>
+      <c r="B25" s="101" t="s">
+        <v>272</v>
+      </c>
       <c r="C25" s="102"/>
       <c r="D25" s="103"/>
       <c r="E25" s="102"/>
@@ -13435,7 +13780,7 @@
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A26" s="71"/>
       <c r="B26" s="131" t="s">
         <v>38</v>
@@ -13459,7 +13804,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49"/>
@@ -13483,7 +13828,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
@@ -13507,7 +13852,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="52"/>
       <c r="C29" s="53"/>
@@ -13531,7 +13876,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53"/>
@@ -13555,7 +13900,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="52"/>
       <c r="C31" s="57" t="s">
@@ -13579,7 +13924,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A32" s="71"/>
       <c r="B32" s="61" t="s">
         <v>5</v>
@@ -13603,7 +13948,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="7.5" customHeight="1">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -13620,7 +13965,7 @@
       <c r="N33" s="70"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="35" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:15" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -13735,11 +14080,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -13750,7 +14095,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -13767,7 +14112,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>117</v>
@@ -13790,7 +14135,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -13815,11 +14160,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -13843,7 +14188,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -13862,7 +14207,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G26,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -13899,7 +14244,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -13909,7 +14254,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>280</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -13928,7 +14275,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -13938,7 +14285,9 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="127" t="s">
+        <v>268</v>
+      </c>
       <c r="I8" s="128"/>
       <c r="J8" s="84"/>
       <c r="K8" s="85"/>
@@ -13957,7 +14306,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -13967,7 +14316,9 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="125"/>
+      <c r="H9" s="125" t="s">
+        <v>281</v>
+      </c>
       <c r="I9" s="126"/>
       <c r="J9" s="87"/>
       <c r="K9" s="88"/>
@@ -13986,7 +14337,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -14015,7 +14366,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -14044,7 +14395,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -14073,7 +14424,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -14097,7 +14448,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -14121,10 +14472,14 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>272</v>
+      </c>
       <c r="D15" s="95"/>
       <c r="E15" s="94"/>
       <c r="F15" s="95"/>
@@ -14145,10 +14500,14 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D16" s="99"/>
       <c r="E16" s="98"/>
       <c r="F16" s="99"/>
@@ -14169,11 +14528,17 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E17" s="98"/>
       <c r="F17" s="99"/>
       <c r="G17" s="100"/>
@@ -14193,10 +14558,14 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
+      <c r="B18" s="97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>272</v>
+      </c>
       <c r="D18" s="99"/>
       <c r="E18" s="98"/>
       <c r="F18" s="99"/>
@@ -14217,9 +14586,11 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
-      <c r="B19" s="97"/>
+      <c r="B19" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C19" s="98"/>
       <c r="D19" s="99"/>
       <c r="E19" s="98"/>
@@ -14241,9 +14612,11 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
-      <c r="B20" s="97"/>
+      <c r="B20" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
       <c r="E20" s="98"/>
@@ -14265,9 +14638,11 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
-      <c r="B21" s="97"/>
+      <c r="B21" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
       <c r="E21" s="98"/>
@@ -14289,9 +14664,11 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
-      <c r="B22" s="97"/>
+      <c r="B22" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="98"/>
@@ -14313,9 +14690,11 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="71"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="98"/>
@@ -14337,9 +14716,11 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C24" s="98"/>
       <c r="D24" s="99"/>
       <c r="E24" s="98"/>
@@ -14361,11 +14742,15 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="97"/>
+      <c r="B25" s="97" t="s">
+        <v>272</v>
+      </c>
       <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
+      <c r="D25" s="99" t="s">
+        <v>272</v>
+      </c>
       <c r="E25" s="98"/>
       <c r="F25" s="99"/>
       <c r="G25" s="100"/>
@@ -14385,11 +14770,15 @@
       <c r="S25" s="106"/>
       <c r="T25" s="106"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A26" s="71"/>
-      <c r="B26" s="101"/>
+      <c r="B26" s="101" t="s">
+        <v>272</v>
+      </c>
       <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
+      <c r="D26" s="103" t="s">
+        <v>272</v>
+      </c>
       <c r="E26" s="102"/>
       <c r="F26" s="103"/>
       <c r="G26" s="104"/>
@@ -14409,7 +14798,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A27" s="71"/>
       <c r="B27" s="131" t="s">
         <v>38</v>
@@ -14433,7 +14822,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49"/>
@@ -14457,7 +14846,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="52"/>
       <c r="C29" s="53"/>
@@ -14481,7 +14870,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53"/>
@@ -14505,7 +14894,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="52"/>
       <c r="C31" s="53"/>
@@ -14529,7 +14918,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="52"/>
       <c r="C32" s="57" t="s">
@@ -14553,7 +14942,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A33" s="71"/>
       <c r="B33" s="61" t="s">
         <v>5</v>
@@ -14577,7 +14966,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="7.5" customHeight="1">
       <c r="A34" s="70"/>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -14594,7 +14983,7 @@
       <c r="N34" s="70"/>
       <c r="O34" s="72"/>
     </row>
-    <row r="36" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -14709,11 +15098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -14724,7 +15113,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -14741,7 +15130,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>139</v>
@@ -14764,7 +15153,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -14789,11 +15178,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -14817,7 +15206,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -14836,7 +15225,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G22,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -14873,7 +15262,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -14883,7 +15272,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>282</v>
+      </c>
       <c r="I7" s="144"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
@@ -14902,7 +15293,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -14931,7 +15322,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -14960,7 +15351,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -14989,7 +15380,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -15018,7 +15409,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -15047,7 +15438,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -15071,7 +15462,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -15095,9 +15486,11 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
-      <c r="B15" s="93"/>
+      <c r="B15" s="93" t="s">
+        <v>272</v>
+      </c>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
       <c r="E15" s="94"/>
@@ -15119,7 +15512,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -15143,7 +15536,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -15167,7 +15560,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -15191,7 +15584,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -15215,7 +15608,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -15239,7 +15632,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -15263,7 +15656,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="71"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
@@ -15287,7 +15680,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="71"/>
       <c r="B23" s="131" t="s">
         <v>38</v>
@@ -15311,7 +15704,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
@@ -15335,7 +15728,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="52"/>
       <c r="C25" s="53"/>
@@ -15359,7 +15752,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="52"/>
       <c r="C26" s="53"/>
@@ -15383,7 +15776,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="52"/>
       <c r="C27" s="53"/>
@@ -15407,7 +15800,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="52"/>
       <c r="C28" s="57" t="s">
@@ -15431,7 +15824,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="71"/>
       <c r="B29" s="61" t="s">
         <v>5</v>
@@ -15455,7 +15848,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="7.5" customHeight="1">
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -15472,7 +15865,7 @@
       <c r="N30" s="70"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="32" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -15591,7 +15984,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -15602,7 +15995,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -15619,7 +16012,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>140</v>
@@ -15642,7 +16035,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -15667,11 +16060,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -15695,7 +16088,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -15714,7 +16107,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G22,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -15751,7 +16144,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -15780,7 +16173,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -15809,7 +16202,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -15838,7 +16231,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -15867,7 +16260,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -15896,7 +16289,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -15925,7 +16318,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -15949,7 +16342,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -15973,7 +16366,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -15997,7 +16390,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -16021,7 +16414,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -16045,7 +16438,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -16069,7 +16462,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -16093,7 +16486,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -16117,7 +16510,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -16141,7 +16534,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A22" s="71"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
@@ -16165,7 +16558,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="71"/>
       <c r="B23" s="131" t="s">
         <v>38</v>
@@ -16189,7 +16582,7 @@
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
@@ -16213,7 +16606,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="52"/>
       <c r="C25" s="53"/>
@@ -16237,7 +16630,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="52"/>
       <c r="C26" s="53"/>
@@ -16261,7 +16654,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="52"/>
       <c r="C27" s="53"/>
@@ -16285,7 +16678,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="52"/>
       <c r="C28" s="57" t="s">
@@ -16309,7 +16702,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="71"/>
       <c r="B29" s="61" t="s">
         <v>5</v>
@@ -16333,7 +16726,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="7.5" customHeight="1">
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -16350,7 +16743,7 @@
       <c r="N30" s="70"/>
       <c r="O30" s="72"/>
     </row>
-    <row r="32" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
@@ -16469,7 +16862,7 @@
       <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="7" width="3.125" customWidth="1"/>
@@ -16480,7 +16873,7 @@
     <col min="18" max="20" width="14.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" thickBot="1">
       <c r="A1" s="70"/>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -16497,7 +16890,7 @@
       <c r="N1" s="70"/>
       <c r="O1" s="72"/>
     </row>
-    <row r="2" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24" thickBot="1">
       <c r="A2" s="70"/>
       <c r="B2" s="134" t="s">
         <v>151</v>
@@ -16520,7 +16913,7 @@
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="137" t="str">
         <f>"Please indicate the course titles and course work amounts of your previous Bachelor programme related to the topics of "&amp;B2&amp;". Please do also include courses that you have not yet completed but will attend before graduating. Then please tick the boxes referring to course contents where applicable."</f>
@@ -16545,11 +16938,11 @@
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="145" t="str">
         <f>IF(ISBLANK('READ ME FIRST'!C5),"Name missing","Name: "&amp;'READ ME FIRST'!C5)</f>
-        <v xml:space="preserve">Name: Deshmukh,Mohit Harishchandra </v>
+        <v>Name: Deshmukh,Mohit Harishchandra</v>
       </c>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -16573,7 +16966,7 @@
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="140" t="s">
         <v>1</v>
@@ -16592,7 +16985,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="72"/>
     </row>
-    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="31.5" customHeight="1" thickBot="1">
       <c r="A6" s="70"/>
       <c r="B6" s="148" t="str">
         <f>IF(AND(COUNTIF(B15:G36,"X")&gt;0,OR(NOT(ISBLANK(H7)),NOT(ISBLANK(H8)),NOT(ISBLANK(H9)),NOT(ISBLANK(H10)),NOT(ISBLANK(H11)),NOT(ISBLANK(H12)))),"","Please insert module titles and content")</f>
@@ -16629,7 +17022,7 @@
       </c>
       <c r="O6" s="72"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="71"/>
       <c r="B7" s="30" t="s">
         <v>5</v>
@@ -16658,7 +17051,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="71"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -16687,7 +17080,7 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="71"/>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -16716,7 +17109,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="71"/>
       <c r="B10" s="33"/>
       <c r="C10" s="37"/>
@@ -16745,7 +17138,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="71"/>
       <c r="B11" s="33"/>
       <c r="C11" s="37"/>
@@ -16774,7 +17167,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A12" s="71"/>
       <c r="B12" s="43"/>
       <c r="C12" s="44"/>
@@ -16803,7 +17196,7 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="131" t="s">
         <v>12</v>
@@ -16827,7 +17220,7 @@
       <c r="S13" s="69"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A14" s="71"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -16851,7 +17244,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
@@ -16875,7 +17268,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="97"/>
       <c r="C16" s="98"/>
@@ -16899,7 +17292,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -16923,7 +17316,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -16947,7 +17340,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
@@ -16971,7 +17364,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="97"/>
       <c r="C20" s="98"/>
@@ -16995,7 +17388,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="97"/>
       <c r="C21" s="98"/>
@@ -17019,7 +17412,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="97"/>
       <c r="C22" s="98"/>
@@ -17043,7 +17436,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A23" s="71"/>
       <c r="B23" s="101"/>
       <c r="C23" s="102"/>
@@ -17067,7 +17460,7 @@
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A24" s="71"/>
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
@@ -17091,7 +17484,7 @@
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
@@ -17115,7 +17508,7 @@
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
@@ -17139,7 +17532,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="97"/>
       <c r="C27" s="98"/>
@@ -17163,7 +17556,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="97"/>
       <c r="C28" s="98"/>
@@ -17187,7 +17580,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="97"/>
       <c r="C29" s="98"/>
@@ -17211,7 +17604,7 @@
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="97"/>
       <c r="C30" s="98"/>
@@ -17235,7 +17628,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="97"/>
       <c r="C31" s="98"/>
@@ -17259,7 +17652,7 @@
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
-    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="97"/>
       <c r="C32" s="98"/>
@@ -17283,7 +17676,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="71"/>
       <c r="B33" s="97"/>
       <c r="C33" s="98"/>
@@ -17307,7 +17700,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="71"/>
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
@@ -17331,7 +17724,7 @@
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="71"/>
       <c r="B35" s="97"/>
       <c r="C35" s="98"/>
@@ -17355,7 +17748,7 @@
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A36" s="71"/>
       <c r="B36" s="101"/>
       <c r="C36" s="102"/>
@@ -17379,7 +17772,7 @@
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A37" s="71"/>
       <c r="B37" s="131" t="s">
         <v>38</v>
@@ -17403,7 +17796,7 @@
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49"/>
@@ -17427,7 +17820,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
@@ -17451,7 +17844,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="52"/>
       <c r="C40" s="53"/>
@@ -17475,7 +17868,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="71"/>
       <c r="B41" s="52"/>
       <c r="C41" s="53"/>
@@ -17499,7 +17892,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="71"/>
       <c r="B42" s="52"/>
       <c r="C42" s="57" t="s">
@@ -17523,7 +17916,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A43" s="71"/>
       <c r="B43" s="61" t="s">
         <v>5</v>
@@ -17547,7 +17940,7 @@
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="7.5" customHeight="1">
       <c r="A44" s="70"/>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
@@ -17564,7 +17957,7 @@
       <c r="N44" s="70"/>
       <c r="O44" s="72"/>
     </row>
-    <row r="46" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:20" ht="25.5" customHeight="1"/>
   </sheetData>
   <sheetProtection password="A9DC" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="20">
